--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/ssl_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/ssl_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -533,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -541,7 +541,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21">
@@ -549,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -557,7 +557,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -589,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -621,7 +621,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -790,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -846,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -878,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -886,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -902,7 +902,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -918,7 +918,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -942,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -950,7 +950,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -958,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -966,7 +966,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -974,7 +974,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -982,7 +982,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -990,7 +990,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -998,7 +998,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -1006,7 +1006,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -1014,7 +1014,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1022,7 +1022,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -1030,7 +1030,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -1038,7 +1038,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -1046,7 +1046,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -1054,7 +1054,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1151,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1167,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1175,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1287,7 +1287,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -1303,7 +1303,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -1319,7 +1319,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -1327,7 +1327,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -1351,7 +1351,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -1359,7 +1359,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -1375,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -1383,7 +1383,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -1391,7 +1391,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1399,7 +1399,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1407,7 +1407,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -1415,7 +1415,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -1423,7 +1423,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -1431,7 +1431,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1520,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1536,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1552,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1600,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -1632,7 +1632,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -1640,7 +1640,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -1664,7 +1664,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1672,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -1680,7 +1680,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1688,7 +1688,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -1696,7 +1696,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -1704,7 +1704,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -1712,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1728,7 +1728,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -1736,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1744,7 +1744,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -1752,7 +1752,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -1760,7 +1760,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1768,7 +1768,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1776,7 +1776,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -1784,7 +1784,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -1792,7 +1792,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -1800,7 +1800,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1889,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1897,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1905,7 +1905,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1921,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1929,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -1937,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -1977,7 +1977,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -1985,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -1993,7 +1993,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -2025,7 +2025,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -2033,7 +2033,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -2049,7 +2049,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -2065,7 +2065,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -2081,7 +2081,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -2089,7 +2089,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -2105,7 +2105,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -2113,7 +2113,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -2121,7 +2121,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -2129,7 +2129,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -2137,7 +2137,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -2145,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -2153,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -2161,7 +2161,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -2169,7 +2169,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -2177,7 +2177,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -2258,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -2298,7 +2298,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2354,7 +2354,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -2362,7 +2362,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -2394,7 +2394,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -2410,7 +2410,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -2418,7 +2418,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -2426,7 +2426,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -2434,7 +2434,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -2442,7 +2442,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -2450,7 +2450,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -2458,7 +2458,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -2466,7 +2466,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -2474,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -2482,7 +2482,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -2490,7 +2490,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -2498,7 +2498,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -2506,7 +2506,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -2514,7 +2514,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -2522,7 +2522,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -2530,7 +2530,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -2538,7 +2538,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -2546,7 +2546,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -2627,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -2635,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -2643,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -2659,7 +2659,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -2667,7 +2667,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2755,7 +2755,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -2763,7 +2763,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -2779,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -2787,7 +2787,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -2803,7 +2803,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -2811,7 +2811,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -2827,7 +2827,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -2835,7 +2835,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -2851,7 +2851,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -2859,7 +2859,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -2867,7 +2867,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -2875,7 +2875,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -2883,7 +2883,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -2891,7 +2891,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -2899,7 +2899,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -2907,7 +2907,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -2915,7 +2915,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -2996,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -3004,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -3012,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -3124,7 +3124,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -3132,7 +3132,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -3148,7 +3148,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -3156,7 +3156,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -3164,7 +3164,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3172,7 +3172,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -3180,7 +3180,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -3188,7 +3188,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -3196,7 +3196,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -3204,7 +3204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -3220,7 +3220,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -3228,7 +3228,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -3236,7 +3236,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -3244,7 +3244,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -3252,7 +3252,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -3260,7 +3260,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -3268,7 +3268,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -3276,7 +3276,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -3284,7 +3284,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3357,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -3365,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -3373,7 +3373,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -3493,7 +3493,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -3501,7 +3501,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -3517,7 +3517,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -3525,7 +3525,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -3533,7 +3533,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3541,7 +3541,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -3549,7 +3549,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -3557,7 +3557,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -3565,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -3573,7 +3573,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -3581,7 +3581,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -3589,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -3597,7 +3597,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -3605,7 +3605,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -3613,7 +3613,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -3629,7 +3629,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -3637,7 +3637,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -3645,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -3653,7 +3653,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -3734,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -3854,7 +3854,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -3862,7 +3862,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -3870,7 +3870,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -3878,7 +3878,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -3886,7 +3886,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -3902,7 +3902,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -3918,7 +3918,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -3926,7 +3926,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -3934,7 +3934,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -3942,7 +3942,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -3950,7 +3950,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -3958,7 +3958,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -3966,7 +3966,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -3974,7 +3974,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -3982,7 +3982,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -3990,7 +3990,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -3998,7 +3998,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -4006,7 +4006,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -4014,7 +4014,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -4111,7 +4111,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -4175,7 +4175,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -4223,7 +4223,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -4231,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -4239,7 +4239,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -4247,7 +4247,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -4255,7 +4255,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -4271,7 +4271,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -4279,7 +4279,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -4287,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -4295,7 +4295,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -4303,7 +4303,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -4311,7 +4311,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -4319,7 +4319,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -4327,7 +4327,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -4335,7 +4335,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -4343,7 +4343,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -4351,7 +4351,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -4359,7 +4359,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -4367,7 +4367,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -4383,7 +4383,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -4391,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -4472,7 +4472,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -4480,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -4488,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -4496,7 +4496,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -4504,7 +4504,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -4512,7 +4512,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -4520,7 +4520,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -4528,7 +4528,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -4536,7 +4536,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -4544,7 +4544,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -4552,7 +4552,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -4560,7 +4560,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -4616,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -4624,7 +4624,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -4648,7 +4648,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -4664,7 +4664,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -4680,7 +4680,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -4841,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -4865,7 +4865,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -4913,7 +4913,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -4961,7 +4961,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -4969,7 +4969,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -4985,7 +4985,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -4993,7 +4993,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -5001,7 +5001,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -5009,7 +5009,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -5017,7 +5017,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -5025,7 +5025,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -5033,7 +5033,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -5041,7 +5041,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -5049,7 +5049,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -5057,7 +5057,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -5065,7 +5065,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -5073,7 +5073,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -5081,7 +5081,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -5089,7 +5089,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -5097,7 +5097,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -5105,7 +5105,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -5113,7 +5113,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -5121,7 +5121,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -5129,7 +5129,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -5210,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -5218,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -5226,7 +5226,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -5234,7 +5234,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -5266,7 +5266,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -5322,7 +5322,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -5330,7 +5330,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -5354,7 +5354,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -5370,7 +5370,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -5378,7 +5378,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -5386,7 +5386,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -5402,7 +5402,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -5410,7 +5410,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -5418,7 +5418,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -5426,7 +5426,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -5434,7 +5434,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -5442,7 +5442,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -5450,7 +5450,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -5458,7 +5458,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -5466,7 +5466,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -5474,7 +5474,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -5482,7 +5482,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -5490,7 +5490,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -5498,7 +5498,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -5506,7 +5506,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -5579,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -5587,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -5595,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -5603,7 +5603,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -5611,7 +5611,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -5627,7 +5627,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -5667,7 +5667,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -5683,7 +5683,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -5715,7 +5715,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -5739,7 +5739,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -5755,7 +5755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -5779,7 +5779,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -5803,7 +5803,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -5811,7 +5811,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -5843,7 +5843,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -5851,7 +5851,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -5859,7 +5859,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -5867,7 +5867,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -5875,7 +5875,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -5940,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -5948,7 +5948,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -5956,7 +5956,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -5964,7 +5964,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -5972,7 +5972,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -5980,7 +5980,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -5988,7 +5988,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -5996,7 +5996,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -6012,7 +6012,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -6020,7 +6020,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -6076,7 +6076,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -6100,7 +6100,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -6196,7 +6196,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -6309,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -6317,7 +6317,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -6325,7 +6325,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -6333,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -6341,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -6349,7 +6349,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -6357,7 +6357,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -6365,7 +6365,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -6373,7 +6373,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -6381,7 +6381,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -6389,7 +6389,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -6397,7 +6397,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -6405,7 +6405,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -6413,7 +6413,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -6421,7 +6421,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -6429,7 +6429,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -6437,7 +6437,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -6445,7 +6445,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -6453,7 +6453,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -6461,7 +6461,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -6469,7 +6469,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -6477,7 +6477,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -6485,7 +6485,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -6493,7 +6493,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -6501,7 +6501,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
@@ -6517,7 +6517,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -6541,7 +6541,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -6549,7 +6549,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -6557,7 +6557,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -6565,7 +6565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -6581,7 +6581,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -6589,7 +6589,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -6597,7 +6597,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -6605,7 +6605,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -6613,7 +6613,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -6621,7 +6621,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -6678,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -6686,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -6694,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -6702,7 +6702,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -6710,7 +6710,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -6726,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -6734,7 +6734,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -6742,7 +6742,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -6814,7 +6814,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -6822,7 +6822,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -6846,7 +6846,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -6870,7 +6870,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -6886,7 +6886,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
@@ -6894,7 +6894,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
@@ -6910,7 +6910,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -7047,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -7055,7 +7055,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -7063,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -7071,7 +7071,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -7079,7 +7079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -7127,7 +7127,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -7151,7 +7151,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -7159,7 +7159,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -7167,7 +7167,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -7175,7 +7175,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -7183,7 +7183,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -7199,7 +7199,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -7207,7 +7207,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -7215,7 +7215,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -7223,7 +7223,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -7231,7 +7231,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -7239,7 +7239,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -7247,7 +7247,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -7255,7 +7255,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -7263,7 +7263,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -7271,7 +7271,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -7279,7 +7279,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -7287,7 +7287,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -7416,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -7424,7 +7424,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -7432,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -7440,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -7448,7 +7448,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -7496,7 +7496,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -7504,7 +7504,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -7528,7 +7528,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -7536,7 +7536,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -7544,7 +7544,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -7560,7 +7560,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
@@ -7568,7 +7568,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -7576,7 +7576,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -7584,7 +7584,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -7592,7 +7592,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -7600,7 +7600,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -7608,7 +7608,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
@@ -7616,7 +7616,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -7624,7 +7624,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -7632,7 +7632,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
@@ -7640,7 +7640,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
@@ -7648,7 +7648,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -7656,7 +7656,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
@@ -7664,7 +7664,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -7793,7 +7793,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -7801,7 +7801,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -7849,7 +7849,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -7865,7 +7865,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -7889,7 +7889,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -7897,7 +7897,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -7905,7 +7905,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -7913,7 +7913,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -7921,7 +7921,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
@@ -7929,7 +7929,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
@@ -7937,7 +7937,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -7945,7 +7945,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
@@ -7953,7 +7953,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -7961,7 +7961,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -7969,7 +7969,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -7977,7 +7977,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -7985,7 +7985,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -7993,7 +7993,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -8001,7 +8001,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -8009,7 +8009,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
@@ -8017,7 +8017,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
@@ -8025,7 +8025,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -8033,7 +8033,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
@@ -8041,7 +8041,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -8049,7 +8049,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -8154,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -8162,7 +8162,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -8170,7 +8170,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -8178,7 +8178,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -8218,7 +8218,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -8234,7 +8234,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -8250,7 +8250,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -8258,7 +8258,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -8266,7 +8266,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -8274,7 +8274,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -8282,7 +8282,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -8298,7 +8298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -8306,7 +8306,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -8314,7 +8314,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -8322,7 +8322,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -8330,7 +8330,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -8338,7 +8338,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -8346,7 +8346,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -8354,7 +8354,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -8362,7 +8362,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -8370,7 +8370,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
@@ -8378,7 +8378,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
@@ -8386,7 +8386,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
@@ -8394,7 +8394,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -8402,7 +8402,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -8410,7 +8410,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -8418,7 +8418,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -8523,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -8531,7 +8531,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -8539,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -8555,7 +8555,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -8595,7 +8595,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -8611,7 +8611,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -8619,7 +8619,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -8627,7 +8627,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -8635,7 +8635,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -8643,7 +8643,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -8651,7 +8651,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -8659,7 +8659,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -8675,7 +8675,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -8683,7 +8683,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -8691,7 +8691,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -8699,7 +8699,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -8707,7 +8707,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -8715,7 +8715,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -8723,7 +8723,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -8731,7 +8731,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -8739,7 +8739,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -8747,7 +8747,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -8755,7 +8755,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
@@ -8763,7 +8763,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -8771,7 +8771,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -8779,7 +8779,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -8787,7 +8787,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -8795,7 +8795,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -8900,7 +8900,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -8908,7 +8908,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -8916,7 +8916,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -8972,7 +8972,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -9020,7 +9020,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -9028,7 +9028,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -9036,7 +9036,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -9052,7 +9052,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -9060,7 +9060,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -9068,7 +9068,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -9076,7 +9076,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -9084,7 +9084,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -9092,7 +9092,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -9100,7 +9100,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -9108,7 +9108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -9116,7 +9116,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -9124,7 +9124,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -9132,7 +9132,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -9140,7 +9140,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -9148,7 +9148,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -9156,7 +9156,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -9164,7 +9164,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -9172,7 +9172,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
